--- a/server/VTP_excel_don_hang.xlsx
+++ b/server/VTP_excel_don_hang.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30910A0E-5225-45AE-92B8-8B0F5C224FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="8170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Danh sách" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="Thời gian hẹn lấy" state="hidden" r:id="rId5"/>
-    <sheet sheetId="3" name="Tinh chat hang hoa" state="hidden" r:id="rId6"/>
-    <sheet sheetId="4" name="Loai hang hoa" state="hidden" r:id="rId7"/>
-    <sheet sheetId="5" name="Dịch vụ" state="hidden" r:id="rId8"/>
+    <sheet name="Danh sách" sheetId="1" r:id="rId1"/>
+    <sheet name="Thời gian hẹn lấy" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Tinh chat hang hoa" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="Loai hang hoa" sheetId="4" state="hidden" r:id="rId4"/>
+    <sheet name="Dịch vụ" sheetId="5" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase">'Danh sách'!$A$7:$V$8</definedName>
@@ -23,69 +24,69 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="B7" authorId="0">
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
+            <sz val="11"/>
             <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
             <scheme val="minor"/>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
           </rPr>
-          <t xml:space="preserve">======
+          <t>======
 ID#AAAA0bXzsq4
 Viettel Post    (2023-07-06 07:24:27)
 Mã đơn hàng là mã riêng do khách hàng tự quy định để quản lý hàng trong kho (không bắt buộc nhập)</t>
         </r>
       </text>
     </comment>
-    <comment ref="E7" authorId="0">
+    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
+            <sz val="11"/>
             <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
             <scheme val="minor"/>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
           </rPr>
-          <t xml:space="preserve">======
+          <t>======
 ID#AAAA0bXzsqs
 Viettel Post    (2023-07-06 07:24:27)
 Lưu ý ghi địa chỉnh xác (tên tỉnh và huyện cần chính xác 100%) để có thể tự động điền vào mục tỉnh và huyện đến. Một số tình thành lưu ý viết chuẩn: Đăk Lăk, Đăk Nông, Vũng Tàu, Thừa Thiên Huế</t>
         </r>
       </text>
     </comment>
-    <comment ref="J7" authorId="0">
+    <comment ref="J7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
+            <sz val="11"/>
             <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
             <scheme val="minor"/>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
           </rPr>
-          <t xml:space="preserve">======
+          <t>======
 ID#AAAA0bXzsqg
 Viettel Post    (2023-07-06 07:24:27)
 Tiền thu hộ sau khi upload file excel lên hệ thống sẽ bao gồm tiền hàng và cả phí ship (nếu người nhận trả cước)</t>
         </r>
       </text>
     </comment>
-    <comment ref="L7" authorId="0">
+    <comment ref="L7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
+            <sz val="11"/>
             <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
             <scheme val="minor"/>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
           </rPr>
-          <t xml:space="preserve">======
+          <t>======
 ID#AAAA0bXzsqw
 A    (2023-07-06 07:24:27)
 A: Chỉ điền mã
@@ -104,80 +105,80 @@
         </r>
       </text>
     </comment>
-    <comment ref="N7" authorId="0">
+    <comment ref="N7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
+            <sz val="11"/>
             <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
             <scheme val="minor"/>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
           </rPr>
-          <t xml:space="preserve">======
+          <t>======
 ID#AAAA0bXzsqk
 Viettel Post    (2023-07-06 07:24:27)
 Không bắt buộc nhập, dịch vụ cộng thêm cách nhau dấu phẩy</t>
         </r>
       </text>
     </comment>
-    <comment ref="O7" authorId="0">
+    <comment ref="O7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
+            <sz val="11"/>
             <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
             <scheme val="minor"/>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
           </rPr>
-          <t xml:space="preserve">======
+          <t>======
 ID#AAAA0bXzsq0
 ViettelPost    (2023-07-06 07:24:27)
 Thu tiền xem hàng khi khách hàng xem hàng nhưng không nhận. Cần chọn dịch vụ cộng thêm XMG.</t>
         </r>
       </text>
     </comment>
-    <comment ref="P7" authorId="0">
+    <comment ref="P7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
+            <sz val="11"/>
             <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
             <scheme val="minor"/>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
           </rPr>
-          <t xml:space="preserve">======
+          <t>======
 ID#AAAA0bXzsq8
 Viettel Post    (2023-07-06 07:24:27)
 Nhập kích thước khi chọn dịch vụ vận chuyển theo hộp VBE, VBS</t>
         </r>
       </text>
     </comment>
-    <comment ref="T7" authorId="0">
+    <comment ref="T7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
+            <sz val="11"/>
             <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
             <scheme val="minor"/>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
           </rPr>
-          <t xml:space="preserve">======
+          <t>======
 ID#AAAA0bXzsrA
 Viettel Post    (2023-07-06 07:24:27)
 Điền thông tin yêu cầu thêm cho đơn hàng khi giao</t>
         </r>
       </text>
     </comment>
-    <comment ref="V7" authorId="0">
+    <comment ref="V7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
+            <sz val="11"/>
             <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
             <scheme val="minor"/>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
           </rPr>
-          <t xml:space="preserve">======
+          <t>======
 ID#AAAA0bXzsqo
 Viettel Post    (2023-07-06 07:24:27)
 Ghi chú thêm về địa chỉ, thời gian giao hàng, lưu ý khác khi giao hàng</t>
@@ -189,7 +190,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="110">
   <si>
     <t>TẬP ĐOÀN CÔNG NGHIỆP - VIỄN THÔNG QUÂN ĐỘI</t>
   </si>
@@ -212,20 +213,20 @@
     <r>
       <rPr>
         <b/>
+        <sz val="8"/>
         <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
         <family val="1"/>
-        <sz val="8"/>
-        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve">Tên người nhận </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="8"/>
         <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
         <family val="1"/>
-        <sz val="8"/>
-        <rFont val="Times New Roman"/>
       </rPr>
       <t>(*)</t>
     </r>
@@ -234,20 +235,20 @@
     <r>
       <rPr>
         <b/>
+        <sz val="8"/>
         <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
         <family val="1"/>
-        <sz val="8"/>
-        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve">Số ĐT người nhận </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="8"/>
         <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
         <family val="1"/>
-        <sz val="8"/>
-        <rFont val="Times New Roman"/>
       </rPr>
       <t>(*)</t>
     </r>
@@ -256,20 +257,20 @@
     <r>
       <rPr>
         <b/>
+        <sz val="8"/>
         <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
         <family val="1"/>
-        <sz val="8"/>
-        <rFont val="Times New Roman"/>
       </rPr>
       <t>Địa chỉ nhận</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="8"/>
         <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
         <family val="1"/>
-        <sz val="8"/>
-        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (*)</t>
     </r>
@@ -278,20 +279,20 @@
     <r>
       <rPr>
         <b/>
+        <sz val="8"/>
         <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
         <family val="1"/>
-        <sz val="8"/>
-        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve">Tên hàng hóa </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="8"/>
         <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
         <family val="1"/>
-        <sz val="8"/>
-        <rFont val="Times New Roman"/>
       </rPr>
       <t>(*)</t>
     </r>
@@ -303,20 +304,20 @@
     <r>
       <rPr>
         <b/>
+        <sz val="8"/>
         <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
         <family val="1"/>
-        <sz val="8"/>
-        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve">Trọng lượng (gram)  </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="8"/>
         <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
         <family val="1"/>
-        <sz val="8"/>
-        <rFont val="Times New Roman"/>
       </rPr>
       <t>(*)</t>
     </r>
@@ -325,20 +326,20 @@
     <r>
       <rPr>
         <b/>
+        <sz val="8"/>
         <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
         <family val="1"/>
-        <sz val="8"/>
-        <rFont val="Times New Roman"/>
       </rPr>
       <t>Giá trị hàng (VND)</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="8"/>
         <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
         <family val="1"/>
-        <sz val="8"/>
-        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (*)</t>
     </r>
@@ -350,20 +351,20 @@
     <r>
       <rPr>
         <b/>
+        <sz val="8"/>
         <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
         <family val="1"/>
-        <sz val="8"/>
-        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve">Loại hàng hóa </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="8"/>
         <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
         <family val="1"/>
-        <sz val="8"/>
-        <rFont val="Times New Roman"/>
       </rPr>
       <t>(*)</t>
     </r>
@@ -375,20 +376,20 @@
     <r>
       <rPr>
         <b/>
+        <sz val="8"/>
         <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
         <family val="1"/>
-        <sz val="8"/>
-        <rFont val="Times New Roman"/>
       </rPr>
       <t>Dịch vụ</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="8"/>
         <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
         <family val="1"/>
-        <sz val="8"/>
-        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve">  (*)</t>
     </r>
@@ -433,9 +434,6 @@
     <t>Số 11 Duy Tân, phường Dịch Vọng Hậu, quận Cầu Giấy, thành phố Hà Nội</t>
   </si>
   <si>
-    <t>Sách tiếng Anh</t>
-  </si>
-  <si>
     <t>PHS - Nội tỉnh tiết kiệm thỏa thuận</t>
   </si>
   <si>
@@ -623,140 +621,204 @@
   </si>
   <si>
     <t>BTK - Hàng nặng tiết kiệm</t>
+  </si>
+  <si>
+    <t>Card,buu thiep</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn A</t>
+  </si>
+  <si>
+    <t>0912345678</t>
+  </si>
+  <si>
+    <t>123 Lê Lợi, Hà Nội</t>
+  </si>
+  <si>
+    <t>Trần Thị B</t>
+  </si>
+  <si>
+    <t>0987654321</t>
+  </si>
+  <si>
+    <t>456 Nguyễn Huệ, TP.HCM</t>
+  </si>
+  <si>
+    <t>Lê Văn C</t>
+  </si>
+  <si>
+    <t>0934567890</t>
+  </si>
+  <si>
+    <t>789 Trần Phú, Đà Nẵng</t>
+  </si>
+  <si>
+    <t>Phạm Thị D</t>
+  </si>
+  <si>
+    <t>0971234567</t>
+  </si>
+  <si>
+    <t>321 Hai Bà Trưng, Hải Phòng</t>
+  </si>
+  <si>
+    <t>Hoàng Văn E</t>
+  </si>
+  <si>
+    <t>0962345678</t>
+  </si>
+  <si>
+    <t>654 Lý Thường Kiệt, Cần Thơ</t>
+  </si>
+  <si>
+    <t>VCN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="22">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
     </font>
     <font>
       <b/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="9"/>
-      <name val="Times New Roman"/>
     </font>
     <font>
       <b/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
     </font>
     <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
       <color rgb="FF385724"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="18"/>
-      <name val="Times New Roman"/>
     </font>
     <font>
       <b/>
+      <sz val="20"/>
       <color rgb="FF385724"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="20"/>
-      <name val="Times New Roman"/>
     </font>
     <font>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
     </font>
     <font>
       <b/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="8"/>
-      <name val="Times New Roman"/>
     </font>
     <font>
+      <sz val="8"/>
       <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="8"/>
-      <name val="Times New Roman"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <sz val="11"/>
       <name val="&quot;Times New Roman&quot;"/>
     </font>
     <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <sz val="11"/>
       <name val="&quot;Times New Roman&quot;"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="9"/>
       <color rgb="FF081B3A"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
-      <sz val="9"/>
-      <name val="Segoe UI"/>
     </font>
     <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -812,7 +874,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -910,6 +972,8 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -938,7 +1002,7 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
@@ -948,7 +1012,7 @@
     <xdr:ext cx="5476875" cy="2838450"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Picture 1">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
@@ -977,7 +1041,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
@@ -987,7 +1051,7 @@
     <xdr:ext cx="1076325" cy="381000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 2">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
@@ -1216,14 +1280,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AF14"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="F6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8:M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="14.453125" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8.6328125" customWidth="1"/>
     <col min="2" max="2" width="16.08984375" customWidth="1"/>
@@ -1250,7 +1314,7 @@
     <col min="23" max="23" width="8.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="14.4" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1284,7 +1348,7 @@
       <c r="AE1" s="4"/>
       <c r="AF1" s="4"/>
     </row>
-    <row r="2" ht="13.5" customHeight="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" ht="13.5" customHeight="1">
       <c r="A2" s="4"/>
       <c r="B2" s="2"/>
       <c r="C2" s="5"/>
@@ -1320,7 +1384,7 @@
       <c r="AE2" s="4"/>
       <c r="AF2" s="4"/>
     </row>
-    <row r="3" ht="20.25" customHeight="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" ht="20.25" customHeight="1">
       <c r="A3" s="4"/>
       <c r="B3" s="2"/>
       <c r="C3" s="8"/>
@@ -1356,7 +1420,7 @@
       <c r="AE3" s="4"/>
       <c r="AF3" s="4"/>
     </row>
-    <row r="4" ht="10.5" customHeight="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" ht="10.5" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="4"/>
       <c r="C4" s="9"/>
@@ -1390,7 +1454,7 @@
       <c r="AE4" s="4"/>
       <c r="AF4" s="4"/>
     </row>
-    <row r="5" ht="24" customHeight="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" ht="24" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1426,7 +1490,7 @@
       <c r="AE5" s="4"/>
       <c r="AF5" s="4"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" ht="15.75" customHeight="1">
       <c r="A6" s="15" t="s">
         <v>3</v>
       </c>
@@ -1462,7 +1526,7 @@
       <c r="AE6" s="4"/>
       <c r="AF6" s="4"/>
     </row>
-    <row r="7" ht="39.75" customHeight="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" ht="39.75" customHeight="1">
       <c r="A7" s="18" t="s">
         <v>4</v>
       </c>
@@ -1540,7 +1604,7 @@
       <c r="AE7" s="19"/>
       <c r="AF7" s="19"/>
     </row>
-    <row r="8" ht="28.5" customHeight="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" ht="28.5" customHeight="1">
       <c r="A8" s="20">
         <v>1</v>
       </c>
@@ -1557,46 +1621,40 @@
         <v>29</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="G8" s="25">
         <v>1</v>
       </c>
       <c r="H8" s="26">
-        <v>950</v>
+        <v>50</v>
       </c>
       <c r="I8" s="26">
-        <v>399000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="26">
-        <v>399000</v>
-      </c>
-      <c r="K8" s="20"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="L8" s="20"/>
       <c r="M8" s="21" t="s">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="N8" s="21"/>
       <c r="O8" s="21"/>
-      <c r="P8" s="20">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="20">
-        <v>1</v>
-      </c>
-      <c r="R8" s="20">
-        <v>1</v>
-      </c>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
       <c r="S8" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T8" s="21"/>
       <c r="U8" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="V8" s="27" t="s">
-        <v>34</v>
-      </c>
+      <c r="V8" s="27"/>
       <c r="W8" s="28"/>
       <c r="X8" s="28"/>
       <c r="Y8" s="28"/>
@@ -1608,132 +1666,295 @@
       <c r="AE8" s="28"/>
       <c r="AF8" s="28"/>
     </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32">
       <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
         <v>35</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>36</v>
       </c>
-      <c r="E9" t="s">
-        <v>37</v>
+      <c r="F9" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="25">
+        <v>1</v>
+      </c>
+      <c r="H9" s="26">
+        <v>50</v>
+      </c>
+      <c r="I9" s="26">
+        <v>0</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="M9" s="21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" ht="14.5" customHeight="1">
+      <c r="C10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="25">
+        <v>1</v>
+      </c>
+      <c r="H10" s="26">
+        <v>50</v>
+      </c>
+      <c r="I10" s="26">
+        <v>0</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" ht="14.5" customHeight="1">
+      <c r="C11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="25">
+        <v>1</v>
+      </c>
+      <c r="H11" s="26">
+        <v>50</v>
+      </c>
+      <c r="I11" s="26">
+        <v>0</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="M11" s="21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" ht="14.5" customHeight="1">
+      <c r="C12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" t="s">
+        <v>102</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="G12" s="25">
+        <v>1</v>
+      </c>
+      <c r="H12" s="26">
+        <v>50</v>
+      </c>
+      <c r="I12" s="26">
+        <v>0</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="M12" s="21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" ht="14.5" customHeight="1">
+      <c r="C13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="25">
+        <v>1</v>
+      </c>
+      <c r="H13" s="26">
+        <v>50</v>
+      </c>
+      <c r="I13" s="26">
+        <v>0</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="M13" s="21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" ht="14.5" customHeight="1">
+      <c r="C14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" s="25">
+        <v>1</v>
+      </c>
+      <c r="H14" s="26">
+        <v>50</v>
+      </c>
+      <c r="I14" s="26">
+        <v>0</v>
+      </c>
+      <c r="K14" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="M14" s="21" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A7:V8"/>
+  <autoFilter ref="A7:V8" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="P8:R8">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>OR(COUNTIF(#REF!,"*VBE*"),COUNTIF(#REF!,"*VBS*"))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" prompt="Nhập số lượng - Số lượng từ 0 - 99999" showErrorMessage="1" sqref="G8">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Nhập số lượng - Số lượng từ 0 - 99999" sqref="G8:G14" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
       <formula2>99999</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" prompt="Lỗi nhập liệu - Cần điền trọng lượng dạng số tính theo Gram" showErrorMessage="1" sqref="H8">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Lỗi nhập liệu - Cần điền trọng lượng dạng số tính theo Gram" sqref="H8:H14" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>0</formula1>
       <formula2>999999999999</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" prompt="Lỗi nhập liệu - Nhập số tiền dạng số" showErrorMessage="1" sqref="I8:J8">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Lỗi nhập liệu - Nhập số tiền dạng số" sqref="I8:J8 I9:I14" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>0</formula1>
       <formula2>999999999999</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" prompt="Lỗi nhập liệu - Bạn vui lòng điền kích thước từ 1 - 5.000 cm" showErrorMessage="1" sqref="P8:R8">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Lỗi nhập liệu - Bạn vui lòng điền kích thước từ 1 - 5.000 cm" sqref="P8:R8" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>1</formula1>
       <formula2>5000</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="S8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="S8" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"Người nhận trả,Người gửi trả"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" prompt="Lưu ý - Quý khách vui lòng nhập tối đa 150 ký tự" showErrorMessage="1" sqref="T8">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Lưu ý - Quý khách vui lòng nhập tối đa 150 ký tự" sqref="T8" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>AND(GTE(LEN(T8),MIN((0),(150))),LTE(LEN(T8),MAX((0),(150))))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="V8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="V8" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>"Cả ngày,Sáng,Chiều,Tối,Giờ hành chính,Chủ nhật,Ngày nghỉ lễ"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" scale="35" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
-  <drawing r:id="rId3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="35" orientation="landscape" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="180" zoomScaleNormal="100">
+    <sheetView zoomScale="180" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="14.453125" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="32.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="14.5" customHeight="1">
       <c r="A1" s="29" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="14.5" customHeight="1">
       <c r="A2" s="30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="14.5" customHeight="1">
       <c r="A3" s="30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="14.5" customHeight="1">
+      <c r="A4" s="30" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+    <row r="5" spans="1:1" ht="14.5" customHeight="1">
+      <c r="A5" s="30" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+    <row r="6" spans="1:1" ht="14.5" customHeight="1">
+      <c r="A6" s="30" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+    <row r="7" spans="1:1" ht="14.5" customHeight="1">
+      <c r="A7" s="30" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+    <row r="8" spans="1:1" ht="14.5" customHeight="1">
+      <c r="A8" s="30" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+    <row r="9" spans="1:1" ht="14.5" customHeight="1">
+      <c r="A9" s="30" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+    <row r="10" spans="1:1" ht="14.5" customHeight="1">
+      <c r="A10" s="30" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+    <row r="11" spans="1:1" ht="14.5" customHeight="1">
+      <c r="A11" s="30" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
+    <row r="12" spans="1:1" ht="14.5" customHeight="1">
+      <c r="A12" s="30" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1742,2084 +1963,2084 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="14.453125" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="21.6328125" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
     <col min="3" max="6" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="14.4" customHeight="1">
       <c r="A1" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="31" t="s">
+    </row>
+    <row r="2" spans="1:2" ht="14.4" customHeight="1">
+      <c r="A2" s="32" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="B2" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="32" t="s">
+    </row>
+    <row r="3" spans="1:2" ht="14.4" customHeight="1">
+      <c r="A3" s="32" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="B3" s="32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14.4" customHeight="1">
+      <c r="A4" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="32" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" ht="14.4" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="B4" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="32" t="s">
+    </row>
+    <row r="5" spans="1:2" ht="14.4" customHeight="1">
+      <c r="A5" s="32" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="5" ht="14.4" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="B5" s="32"/>
+    </row>
+    <row r="6" spans="1:2" ht="14.4" customHeight="1">
+      <c r="A6" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="32"/>
-    </row>
-    <row r="6" ht="14.4" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="B6" s="32"/>
+    </row>
+    <row r="7" spans="1:2" ht="14.4" customHeight="1">
+      <c r="A7" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="32"/>
-    </row>
-    <row r="7" ht="14.4" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="B7" s="32"/>
+    </row>
+    <row r="8" spans="1:2" ht="14.4" customHeight="1">
+      <c r="A8" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="32"/>
-    </row>
-    <row r="8" ht="14.4" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
-        <v>58</v>
-      </c>
       <c r="B8" s="32"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="14.453125" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16.90625" customWidth="1"/>
     <col min="2" max="6" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="14.4" customHeight="1">
       <c r="A1" s="31" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="14.4" customHeight="1">
       <c r="A2" s="33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="14.4" customHeight="1">
+      <c r="A3" s="33" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:W1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="14.453125" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="34.453125" customWidth="1"/>
     <col min="2" max="2" width="37" customWidth="1"/>
@@ -3829,7 +4050,7 @@
     <col min="6" max="6" width="15.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="14.4" customHeight="1">
       <c r="A1" s="34"/>
       <c r="B1" s="34"/>
       <c r="C1" s="34"/>
@@ -3854,15 +4075,15 @@
       <c r="V1" s="34"/>
       <c r="W1" s="34"/>
     </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="14.4" customHeight="1">
       <c r="A2" s="34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="34" t="s">
         <v>60</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>61</v>
       </c>
       <c r="D2" s="34"/>
       <c r="E2" s="34"/>
@@ -3885,15 +4106,15 @@
       <c r="V2" s="34"/>
       <c r="W2" s="34"/>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="14.4" customHeight="1">
       <c r="A3" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="C3" s="34" t="s">
         <v>63</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>64</v>
       </c>
       <c r="D3" s="34"/>
       <c r="E3" s="34"/>
@@ -3916,13 +4137,13 @@
       <c r="V3" s="34"/>
       <c r="W3" s="34"/>
     </row>
-    <row r="4" ht="14.4" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="14.4" customHeight="1">
       <c r="A4" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="34"/>
       <c r="C4" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4" s="34"/>
       <c r="E4" s="34"/>
@@ -3945,15 +4166,15 @@
       <c r="V4" s="34"/>
       <c r="W4" s="34"/>
     </row>
-    <row r="5" ht="14.4" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="14.4" customHeight="1">
       <c r="A5" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="C5" s="34" t="s">
         <v>68</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>69</v>
       </c>
       <c r="D5" s="34"/>
       <c r="E5" s="34"/>
@@ -3976,15 +4197,15 @@
       <c r="V5" s="34"/>
       <c r="W5" s="34"/>
     </row>
-    <row r="6" ht="14.4" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="14.4" customHeight="1">
       <c r="A6" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="C6" s="34" t="s">
         <v>71</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>72</v>
       </c>
       <c r="D6" s="34"/>
       <c r="E6" s="34"/>
@@ -4007,9 +4228,9 @@
       <c r="V6" s="34"/>
       <c r="W6" s="34"/>
     </row>
-    <row r="7" ht="14.4" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="14.4" customHeight="1">
       <c r="A7" s="34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7" s="34"/>
       <c r="C7" s="34"/>
@@ -4034,9 +4255,9 @@
       <c r="V7" s="34"/>
       <c r="W7" s="34"/>
     </row>
-    <row r="8" ht="14.4" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="14.4" customHeight="1">
       <c r="A8" s="34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B8" s="34"/>
       <c r="C8" s="34"/>
@@ -4061,9 +4282,9 @@
       <c r="V8" s="34"/>
       <c r="W8" s="34"/>
     </row>
-    <row r="9" ht="14.4" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="14.4" customHeight="1">
       <c r="A9" s="34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9" s="34"/>
       <c r="C9" s="34"/>
@@ -4088,9 +4309,9 @@
       <c r="V9" s="34"/>
       <c r="W9" s="34"/>
     </row>
-    <row r="10" ht="14.4" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="14.4" customHeight="1">
       <c r="A10" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" s="34"/>
       <c r="C10" s="34"/>
@@ -4115,9 +4336,9 @@
       <c r="V10" s="34"/>
       <c r="W10" s="34"/>
     </row>
-    <row r="11" ht="14.4" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="14.4" customHeight="1">
       <c r="A11" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B11" s="34"/>
       <c r="C11" s="34"/>
@@ -4142,9 +4363,9 @@
       <c r="V11" s="34"/>
       <c r="W11" s="34"/>
     </row>
-    <row r="12" ht="14.4" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="14.4" customHeight="1">
       <c r="A12" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12" s="34"/>
       <c r="C12" s="34"/>
@@ -4169,9 +4390,9 @@
       <c r="V12" s="34"/>
       <c r="W12" s="34"/>
     </row>
-    <row r="13" ht="14.4" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="14.4" customHeight="1">
       <c r="A13" s="34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B13" s="34"/>
       <c r="C13" s="34"/>
@@ -4196,9 +4417,9 @@
       <c r="V13" s="34"/>
       <c r="W13" s="34"/>
     </row>
-    <row r="14" ht="14.4" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="14.4" customHeight="1">
       <c r="A14" s="34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B14" s="34"/>
       <c r="C14" s="34"/>
@@ -4223,9 +4444,9 @@
       <c r="V14" s="34"/>
       <c r="W14" s="34"/>
     </row>
-    <row r="15" ht="14.4" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="14.4" customHeight="1">
       <c r="A15" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B15" s="34"/>
       <c r="C15" s="34"/>
@@ -4250,9 +4471,9 @@
       <c r="V15" s="34"/>
       <c r="W15" s="34"/>
     </row>
-    <row r="16" ht="14.4" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="14.4" customHeight="1">
       <c r="A16" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16" s="34"/>
       <c r="C16" s="34"/>
@@ -4277,9 +4498,9 @@
       <c r="V16" s="34"/>
       <c r="W16" s="34"/>
     </row>
-    <row r="17" ht="14.4" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" ht="14.4" customHeight="1">
       <c r="A17" s="36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B17" s="34"/>
       <c r="C17" s="34"/>
@@ -4304,9 +4525,9 @@
       <c r="V17" s="34"/>
       <c r="W17" s="34"/>
     </row>
-    <row r="18" ht="14.4" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="14.4" customHeight="1">
       <c r="A18" s="34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B18" s="34"/>
       <c r="C18" s="34"/>
@@ -4331,9 +4552,9 @@
       <c r="V18" s="34"/>
       <c r="W18" s="34"/>
     </row>
-    <row r="19" ht="14.4" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="14.4" customHeight="1">
       <c r="A19" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B19" s="34"/>
       <c r="C19" s="34"/>
@@ -4358,9 +4579,9 @@
       <c r="V19" s="34"/>
       <c r="W19" s="34"/>
     </row>
-    <row r="20" ht="14.4" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="14.4" customHeight="1">
       <c r="A20" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B20" s="34"/>
       <c r="C20" s="34"/>
@@ -4385,9 +4606,9 @@
       <c r="V20" s="34"/>
       <c r="W20" s="34"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="15.75" customHeight="1">
       <c r="A21" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B21" s="34"/>
       <c r="C21" s="34"/>
@@ -4412,9 +4633,9 @@
       <c r="V21" s="34"/>
       <c r="W21" s="34"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" ht="15.75" customHeight="1">
       <c r="A22" s="34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B22" s="34"/>
       <c r="C22" s="34"/>
@@ -4439,9 +4660,9 @@
       <c r="V22" s="34"/>
       <c r="W22" s="34"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" ht="15.75" customHeight="1">
       <c r="A23" s="34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B23" s="34"/>
       <c r="C23" s="34"/>
@@ -4466,9 +4687,9 @@
       <c r="V23" s="34"/>
       <c r="W23" s="34"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" ht="15.75" customHeight="1">
       <c r="A24" s="34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B24" s="34"/>
       <c r="C24" s="34"/>
@@ -4493,9 +4714,9 @@
       <c r="V24" s="34"/>
       <c r="W24" s="34"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" ht="15.75" customHeight="1">
       <c r="A25" s="34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B25" s="34"/>
       <c r="C25" s="34"/>
@@ -4520,9 +4741,9 @@
       <c r="V25" s="34"/>
       <c r="W25" s="34"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" ht="15.75" customHeight="1">
       <c r="A26" s="34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B26" s="34"/>
       <c r="C26" s="34"/>
@@ -4547,9 +4768,9 @@
       <c r="V26" s="34"/>
       <c r="W26" s="34"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" ht="15.75" customHeight="1">
       <c r="A27" s="34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B27" s="34"/>
       <c r="C27" s="34"/>
@@ -4574,7 +4795,7 @@
       <c r="V27" s="34"/>
       <c r="W27" s="34"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" ht="15.75" customHeight="1">
       <c r="A28" s="34"/>
       <c r="B28" s="34"/>
       <c r="C28" s="34"/>
@@ -4599,7 +4820,7 @@
       <c r="V28" s="34"/>
       <c r="W28" s="34"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" ht="15.75" customHeight="1">
       <c r="A29" s="34"/>
       <c r="B29" s="34"/>
       <c r="C29" s="34"/>
@@ -4624,7 +4845,7 @@
       <c r="V29" s="34"/>
       <c r="W29" s="34"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" ht="15.75" customHeight="1">
       <c r="A30" s="34"/>
       <c r="B30" s="34"/>
       <c r="C30" s="34"/>
@@ -4649,7 +4870,7 @@
       <c r="V30" s="34"/>
       <c r="W30" s="34"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" ht="15.75" customHeight="1">
       <c r="A31" s="34"/>
       <c r="B31" s="34"/>
       <c r="C31" s="34"/>
@@ -4674,7 +4895,7 @@
       <c r="V31" s="34"/>
       <c r="W31" s="34"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" ht="15.75" customHeight="1">
       <c r="A32" s="34"/>
       <c r="B32" s="34"/>
       <c r="C32" s="34"/>
@@ -4699,7 +4920,7 @@
       <c r="V32" s="34"/>
       <c r="W32" s="34"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" ht="15.75" customHeight="1">
       <c r="A33" s="34"/>
       <c r="B33" s="34"/>
       <c r="C33" s="34"/>
@@ -4724,7 +4945,7 @@
       <c r="V33" s="34"/>
       <c r="W33" s="34"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" ht="15.75" customHeight="1">
       <c r="A34" s="34"/>
       <c r="B34" s="34"/>
       <c r="C34" s="34"/>
@@ -4749,7 +4970,7 @@
       <c r="V34" s="34"/>
       <c r="W34" s="34"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" ht="15.75" customHeight="1">
       <c r="A35" s="34"/>
       <c r="B35" s="34"/>
       <c r="C35" s="34"/>
@@ -4774,7 +4995,7 @@
       <c r="V35" s="34"/>
       <c r="W35" s="34"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" ht="15.75" customHeight="1">
       <c r="A36" s="34"/>
       <c r="B36" s="34"/>
       <c r="C36" s="34"/>
@@ -4799,7 +5020,7 @@
       <c r="V36" s="34"/>
       <c r="W36" s="34"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" ht="15.75" customHeight="1">
       <c r="A37" s="34"/>
       <c r="B37" s="34"/>
       <c r="C37" s="34"/>
@@ -4824,7 +5045,7 @@
       <c r="V37" s="34"/>
       <c r="W37" s="34"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" ht="15.75" customHeight="1">
       <c r="A38" s="34"/>
       <c r="B38" s="34"/>
       <c r="C38" s="34"/>
@@ -4849,7 +5070,7 @@
       <c r="V38" s="34"/>
       <c r="W38" s="34"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" ht="15.75" customHeight="1">
       <c r="A39" s="34"/>
       <c r="B39" s="34"/>
       <c r="C39" s="34"/>
@@ -4874,7 +5095,7 @@
       <c r="V39" s="34"/>
       <c r="W39" s="34"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" ht="15.75" customHeight="1">
       <c r="A40" s="34"/>
       <c r="B40" s="34"/>
       <c r="C40" s="34"/>
@@ -4899,7 +5120,7 @@
       <c r="V40" s="34"/>
       <c r="W40" s="34"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" ht="15.75" customHeight="1">
       <c r="A41" s="34"/>
       <c r="B41" s="34"/>
       <c r="C41" s="34"/>
@@ -4924,7 +5145,7 @@
       <c r="V41" s="34"/>
       <c r="W41" s="34"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" ht="15.75" customHeight="1">
       <c r="A42" s="34"/>
       <c r="B42" s="34"/>
       <c r="C42" s="34"/>
@@ -4949,7 +5170,7 @@
       <c r="V42" s="34"/>
       <c r="W42" s="34"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" ht="15.75" customHeight="1">
       <c r="A43" s="34"/>
       <c r="B43" s="34"/>
       <c r="C43" s="34"/>
@@ -4974,7 +5195,7 @@
       <c r="V43" s="34"/>
       <c r="W43" s="34"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" ht="15.75" customHeight="1">
       <c r="A44" s="34"/>
       <c r="B44" s="34"/>
       <c r="C44" s="34"/>
@@ -4999,7 +5220,7 @@
       <c r="V44" s="34"/>
       <c r="W44" s="34"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" ht="15.75" customHeight="1">
       <c r="A45" s="34"/>
       <c r="B45" s="34"/>
       <c r="C45" s="34"/>
@@ -5024,7 +5245,7 @@
       <c r="V45" s="34"/>
       <c r="W45" s="34"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" ht="15.75" customHeight="1">
       <c r="A46" s="34"/>
       <c r="B46" s="34"/>
       <c r="C46" s="34"/>
@@ -5049,7 +5270,7 @@
       <c r="V46" s="34"/>
       <c r="W46" s="34"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" ht="15.75" customHeight="1">
       <c r="A47" s="34"/>
       <c r="B47" s="34"/>
       <c r="C47" s="34"/>
@@ -5074,7 +5295,7 @@
       <c r="V47" s="34"/>
       <c r="W47" s="34"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" ht="15.75" customHeight="1">
       <c r="A48" s="34"/>
       <c r="B48" s="34"/>
       <c r="C48" s="34"/>
@@ -5099,7 +5320,7 @@
       <c r="V48" s="34"/>
       <c r="W48" s="34"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" ht="15.75" customHeight="1">
       <c r="A49" s="34"/>
       <c r="B49" s="34"/>
       <c r="C49" s="34"/>
@@ -5124,7 +5345,7 @@
       <c r="V49" s="34"/>
       <c r="W49" s="34"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" ht="15.75" customHeight="1">
       <c r="A50" s="34"/>
       <c r="B50" s="34"/>
       <c r="C50" s="34"/>
@@ -5149,7 +5370,7 @@
       <c r="V50" s="34"/>
       <c r="W50" s="34"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" ht="15.75" customHeight="1">
       <c r="A51" s="34"/>
       <c r="B51" s="34"/>
       <c r="C51" s="34"/>
@@ -5174,7 +5395,7 @@
       <c r="V51" s="34"/>
       <c r="W51" s="34"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" ht="15.75" customHeight="1">
       <c r="A52" s="34"/>
       <c r="B52" s="34"/>
       <c r="C52" s="34"/>
@@ -5199,7 +5420,7 @@
       <c r="V52" s="34"/>
       <c r="W52" s="34"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" ht="15.75" customHeight="1">
       <c r="A53" s="34"/>
       <c r="B53" s="34"/>
       <c r="C53" s="34"/>
@@ -5224,7 +5445,7 @@
       <c r="V53" s="34"/>
       <c r="W53" s="34"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" ht="15.75" customHeight="1">
       <c r="A54" s="34"/>
       <c r="B54" s="34"/>
       <c r="C54" s="34"/>
@@ -5249,7 +5470,7 @@
       <c r="V54" s="34"/>
       <c r="W54" s="34"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" ht="15.75" customHeight="1">
       <c r="A55" s="34"/>
       <c r="B55" s="34"/>
       <c r="C55" s="34"/>
@@ -5274,7 +5495,7 @@
       <c r="V55" s="34"/>
       <c r="W55" s="34"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" ht="15.75" customHeight="1">
       <c r="A56" s="34"/>
       <c r="B56" s="34"/>
       <c r="C56" s="34"/>
@@ -5299,7 +5520,7 @@
       <c r="V56" s="34"/>
       <c r="W56" s="34"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" ht="15.75" customHeight="1">
       <c r="A57" s="34"/>
       <c r="B57" s="34"/>
       <c r="C57" s="34"/>
@@ -5324,7 +5545,7 @@
       <c r="V57" s="34"/>
       <c r="W57" s="34"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" ht="15.75" customHeight="1">
       <c r="A58" s="34"/>
       <c r="B58" s="34"/>
       <c r="C58" s="34"/>
@@ -5349,7 +5570,7 @@
       <c r="V58" s="34"/>
       <c r="W58" s="34"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" ht="15.75" customHeight="1">
       <c r="A59" s="34"/>
       <c r="B59" s="34"/>
       <c r="C59" s="34"/>
@@ -5374,7 +5595,7 @@
       <c r="V59" s="34"/>
       <c r="W59" s="34"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" ht="15.75" customHeight="1">
       <c r="A60" s="34"/>
       <c r="B60" s="34"/>
       <c r="C60" s="34"/>
@@ -5399,7 +5620,7 @@
       <c r="V60" s="34"/>
       <c r="W60" s="34"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" ht="15.75" customHeight="1">
       <c r="A61" s="34"/>
       <c r="B61" s="34"/>
       <c r="C61" s="34"/>
@@ -5424,7 +5645,7 @@
       <c r="V61" s="34"/>
       <c r="W61" s="34"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" ht="15.75" customHeight="1">
       <c r="A62" s="34"/>
       <c r="B62" s="34"/>
       <c r="C62" s="34"/>
@@ -5449,7 +5670,7 @@
       <c r="V62" s="34"/>
       <c r="W62" s="34"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" ht="15.75" customHeight="1">
       <c r="A63" s="34"/>
       <c r="B63" s="34"/>
       <c r="C63" s="34"/>
@@ -5474,7 +5695,7 @@
       <c r="V63" s="34"/>
       <c r="W63" s="34"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" ht="15.75" customHeight="1">
       <c r="A64" s="34"/>
       <c r="B64" s="34"/>
       <c r="C64" s="34"/>
@@ -5499,7 +5720,7 @@
       <c r="V64" s="34"/>
       <c r="W64" s="34"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" ht="15.75" customHeight="1">
       <c r="A65" s="34"/>
       <c r="B65" s="34"/>
       <c r="C65" s="34"/>
@@ -5524,7 +5745,7 @@
       <c r="V65" s="34"/>
       <c r="W65" s="34"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" ht="15.75" customHeight="1">
       <c r="A66" s="34"/>
       <c r="B66" s="34"/>
       <c r="C66" s="34"/>
@@ -5549,7 +5770,7 @@
       <c r="V66" s="34"/>
       <c r="W66" s="34"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" ht="15.75" customHeight="1">
       <c r="A67" s="34"/>
       <c r="B67" s="34"/>
       <c r="C67" s="34"/>
@@ -5574,7 +5795,7 @@
       <c r="V67" s="34"/>
       <c r="W67" s="34"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" ht="15.75" customHeight="1">
       <c r="A68" s="34"/>
       <c r="B68" s="34"/>
       <c r="C68" s="34"/>
@@ -5599,7 +5820,7 @@
       <c r="V68" s="34"/>
       <c r="W68" s="34"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" ht="15.75" customHeight="1">
       <c r="A69" s="34"/>
       <c r="B69" s="34"/>
       <c r="C69" s="34"/>
@@ -5624,7 +5845,7 @@
       <c r="V69" s="34"/>
       <c r="W69" s="34"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" ht="15.75" customHeight="1">
       <c r="A70" s="34"/>
       <c r="B70" s="34"/>
       <c r="C70" s="34"/>
@@ -5649,7 +5870,7 @@
       <c r="V70" s="34"/>
       <c r="W70" s="34"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" ht="15.75" customHeight="1">
       <c r="A71" s="34"/>
       <c r="B71" s="34"/>
       <c r="C71" s="34"/>
@@ -5674,7 +5895,7 @@
       <c r="V71" s="34"/>
       <c r="W71" s="34"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" ht="15.75" customHeight="1">
       <c r="A72" s="34"/>
       <c r="B72" s="34"/>
       <c r="C72" s="34"/>
@@ -5699,7 +5920,7 @@
       <c r="V72" s="34"/>
       <c r="W72" s="34"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" ht="15.75" customHeight="1">
       <c r="A73" s="34"/>
       <c r="B73" s="34"/>
       <c r="C73" s="34"/>
@@ -5724,7 +5945,7 @@
       <c r="V73" s="34"/>
       <c r="W73" s="34"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" ht="15.75" customHeight="1">
       <c r="A74" s="34"/>
       <c r="B74" s="34"/>
       <c r="C74" s="34"/>
@@ -5749,7 +5970,7 @@
       <c r="V74" s="34"/>
       <c r="W74" s="34"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" ht="15.75" customHeight="1">
       <c r="A75" s="34"/>
       <c r="B75" s="34"/>
       <c r="C75" s="34"/>
@@ -5774,7 +5995,7 @@
       <c r="V75" s="34"/>
       <c r="W75" s="34"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" ht="15.75" customHeight="1">
       <c r="A76" s="34"/>
       <c r="B76" s="34"/>
       <c r="C76" s="34"/>
@@ -5799,7 +6020,7 @@
       <c r="V76" s="34"/>
       <c r="W76" s="34"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" ht="15.75" customHeight="1">
       <c r="A77" s="34"/>
       <c r="B77" s="34"/>
       <c r="C77" s="34"/>
@@ -5824,7 +6045,7 @@
       <c r="V77" s="34"/>
       <c r="W77" s="34"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" ht="15.75" customHeight="1">
       <c r="A78" s="34"/>
       <c r="B78" s="34"/>
       <c r="C78" s="34"/>
@@ -5849,7 +6070,7 @@
       <c r="V78" s="34"/>
       <c r="W78" s="34"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" ht="15.75" customHeight="1">
       <c r="A79" s="34"/>
       <c r="B79" s="34"/>
       <c r="C79" s="34"/>
@@ -5874,7 +6095,7 @@
       <c r="V79" s="34"/>
       <c r="W79" s="34"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" ht="15.75" customHeight="1">
       <c r="A80" s="34"/>
       <c r="B80" s="34"/>
       <c r="C80" s="34"/>
@@ -5899,7 +6120,7 @@
       <c r="V80" s="34"/>
       <c r="W80" s="34"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" ht="15.75" customHeight="1">
       <c r="A81" s="34"/>
       <c r="B81" s="34"/>
       <c r="C81" s="34"/>
@@ -5924,7 +6145,7 @@
       <c r="V81" s="34"/>
       <c r="W81" s="34"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" ht="15.75" customHeight="1">
       <c r="A82" s="34"/>
       <c r="B82" s="34"/>
       <c r="C82" s="34"/>
@@ -5949,7 +6170,7 @@
       <c r="V82" s="34"/>
       <c r="W82" s="34"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23" ht="15.75" customHeight="1">
       <c r="A83" s="34"/>
       <c r="B83" s="34"/>
       <c r="C83" s="34"/>
@@ -5974,7 +6195,7 @@
       <c r="V83" s="34"/>
       <c r="W83" s="34"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" ht="15.75" customHeight="1">
       <c r="A84" s="34"/>
       <c r="B84" s="34"/>
       <c r="C84" s="34"/>
@@ -5999,7 +6220,7 @@
       <c r="V84" s="34"/>
       <c r="W84" s="34"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" ht="15.75" customHeight="1">
       <c r="A85" s="34"/>
       <c r="B85" s="34"/>
       <c r="C85" s="34"/>
@@ -6024,7 +6245,7 @@
       <c r="V85" s="34"/>
       <c r="W85" s="34"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23" ht="15.75" customHeight="1">
       <c r="A86" s="34"/>
       <c r="B86" s="34"/>
       <c r="C86" s="34"/>
@@ -6049,7 +6270,7 @@
       <c r="V86" s="34"/>
       <c r="W86" s="34"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" ht="15.75" customHeight="1">
       <c r="A87" s="34"/>
       <c r="B87" s="34"/>
       <c r="C87" s="34"/>
@@ -6074,7 +6295,7 @@
       <c r="V87" s="34"/>
       <c r="W87" s="34"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23" ht="15.75" customHeight="1">
       <c r="A88" s="34"/>
       <c r="B88" s="34"/>
       <c r="C88" s="34"/>
@@ -6099,7 +6320,7 @@
       <c r="V88" s="34"/>
       <c r="W88" s="34"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" ht="15.75" customHeight="1">
       <c r="A89" s="34"/>
       <c r="B89" s="34"/>
       <c r="C89" s="34"/>
@@ -6124,7 +6345,7 @@
       <c r="V89" s="34"/>
       <c r="W89" s="34"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23" ht="15.75" customHeight="1">
       <c r="A90" s="34"/>
       <c r="B90" s="34"/>
       <c r="C90" s="34"/>
@@ -6149,7 +6370,7 @@
       <c r="V90" s="34"/>
       <c r="W90" s="34"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" ht="15.75" customHeight="1">
       <c r="A91" s="34"/>
       <c r="B91" s="34"/>
       <c r="C91" s="34"/>
@@ -6174,7 +6395,7 @@
       <c r="V91" s="34"/>
       <c r="W91" s="34"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23" ht="15.75" customHeight="1">
       <c r="A92" s="34"/>
       <c r="B92" s="34"/>
       <c r="C92" s="34"/>
@@ -6199,7 +6420,7 @@
       <c r="V92" s="34"/>
       <c r="W92" s="34"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23" ht="15.75" customHeight="1">
       <c r="A93" s="34"/>
       <c r="B93" s="34"/>
       <c r="C93" s="34"/>
@@ -6224,7 +6445,7 @@
       <c r="V93" s="34"/>
       <c r="W93" s="34"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23" ht="15.75" customHeight="1">
       <c r="A94" s="34"/>
       <c r="B94" s="34"/>
       <c r="C94" s="34"/>
@@ -6249,7 +6470,7 @@
       <c r="V94" s="34"/>
       <c r="W94" s="34"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:23" ht="15.75" customHeight="1">
       <c r="A95" s="34"/>
       <c r="B95" s="34"/>
       <c r="C95" s="34"/>
@@ -6274,7 +6495,7 @@
       <c r="V95" s="34"/>
       <c r="W95" s="34"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:23" ht="15.75" customHeight="1">
       <c r="A96" s="34"/>
       <c r="B96" s="34"/>
       <c r="C96" s="34"/>
@@ -6299,7 +6520,7 @@
       <c r="V96" s="34"/>
       <c r="W96" s="34"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:23" ht="15.75" customHeight="1">
       <c r="A97" s="34"/>
       <c r="B97" s="34"/>
       <c r="C97" s="34"/>
@@ -6324,7 +6545,7 @@
       <c r="V97" s="34"/>
       <c r="W97" s="34"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:23" ht="15.75" customHeight="1">
       <c r="A98" s="34"/>
       <c r="B98" s="34"/>
       <c r="C98" s="34"/>
@@ -6349,7 +6570,7 @@
       <c r="V98" s="34"/>
       <c r="W98" s="34"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:23" ht="15.75" customHeight="1">
       <c r="A99" s="34"/>
       <c r="B99" s="34"/>
       <c r="C99" s="34"/>
@@ -6374,7 +6595,7 @@
       <c r="V99" s="34"/>
       <c r="W99" s="34"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:23" ht="15.75" customHeight="1">
       <c r="A100" s="34"/>
       <c r="B100" s="34"/>
       <c r="C100" s="34"/>
@@ -6399,7 +6620,7 @@
       <c r="V100" s="34"/>
       <c r="W100" s="34"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:23" ht="15.75" customHeight="1">
       <c r="A101" s="34"/>
       <c r="B101" s="34"/>
       <c r="C101" s="34"/>
@@ -6424,7 +6645,7 @@
       <c r="V101" s="34"/>
       <c r="W101" s="34"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:23" ht="15.75" customHeight="1">
       <c r="A102" s="34"/>
       <c r="B102" s="34"/>
       <c r="C102" s="34"/>
@@ -6449,7 +6670,7 @@
       <c r="V102" s="34"/>
       <c r="W102" s="34"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:23" ht="15.75" customHeight="1">
       <c r="A103" s="34"/>
       <c r="B103" s="34"/>
       <c r="C103" s="34"/>
@@ -6474,7 +6695,7 @@
       <c r="V103" s="34"/>
       <c r="W103" s="34"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:23" ht="15.75" customHeight="1">
       <c r="A104" s="34"/>
       <c r="B104" s="34"/>
       <c r="C104" s="34"/>
@@ -6499,7 +6720,7 @@
       <c r="V104" s="34"/>
       <c r="W104" s="34"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:23" ht="15.75" customHeight="1">
       <c r="A105" s="34"/>
       <c r="B105" s="34"/>
       <c r="C105" s="34"/>
@@ -6524,7 +6745,7 @@
       <c r="V105" s="34"/>
       <c r="W105" s="34"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:23" ht="15.75" customHeight="1">
       <c r="A106" s="34"/>
       <c r="B106" s="34"/>
       <c r="C106" s="34"/>
@@ -6549,7 +6770,7 @@
       <c r="V106" s="34"/>
       <c r="W106" s="34"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:23" ht="15.75" customHeight="1">
       <c r="A107" s="34"/>
       <c r="B107" s="34"/>
       <c r="C107" s="34"/>
@@ -6574,7 +6795,7 @@
       <c r="V107" s="34"/>
       <c r="W107" s="34"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:23" ht="15.75" customHeight="1">
       <c r="A108" s="34"/>
       <c r="B108" s="34"/>
       <c r="C108" s="34"/>
@@ -6599,7 +6820,7 @@
       <c r="V108" s="34"/>
       <c r="W108" s="34"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:23" ht="15.75" customHeight="1">
       <c r="A109" s="34"/>
       <c r="B109" s="34"/>
       <c r="C109" s="34"/>
@@ -6624,7 +6845,7 @@
       <c r="V109" s="34"/>
       <c r="W109" s="34"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:23" ht="15.75" customHeight="1">
       <c r="A110" s="34"/>
       <c r="B110" s="34"/>
       <c r="C110" s="34"/>
@@ -6649,7 +6870,7 @@
       <c r="V110" s="34"/>
       <c r="W110" s="34"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:23" ht="15.75" customHeight="1">
       <c r="A111" s="34"/>
       <c r="B111" s="34"/>
       <c r="C111" s="34"/>
@@ -6674,7 +6895,7 @@
       <c r="V111" s="34"/>
       <c r="W111" s="34"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:23" ht="15.75" customHeight="1">
       <c r="A112" s="34"/>
       <c r="B112" s="34"/>
       <c r="C112" s="34"/>
@@ -6699,7 +6920,7 @@
       <c r="V112" s="34"/>
       <c r="W112" s="34"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:23" ht="15.75" customHeight="1">
       <c r="A113" s="34"/>
       <c r="B113" s="34"/>
       <c r="C113" s="34"/>
@@ -6724,7 +6945,7 @@
       <c r="V113" s="34"/>
       <c r="W113" s="34"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:23" ht="15.75" customHeight="1">
       <c r="A114" s="34"/>
       <c r="B114" s="34"/>
       <c r="C114" s="34"/>
@@ -6749,7 +6970,7 @@
       <c r="V114" s="34"/>
       <c r="W114" s="34"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:23" ht="15.75" customHeight="1">
       <c r="A115" s="34"/>
       <c r="B115" s="34"/>
       <c r="C115" s="34"/>
@@ -6774,7 +6995,7 @@
       <c r="V115" s="34"/>
       <c r="W115" s="34"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:23" ht="15.75" customHeight="1">
       <c r="A116" s="34"/>
       <c r="B116" s="34"/>
       <c r="C116" s="34"/>
@@ -6799,7 +7020,7 @@
       <c r="V116" s="34"/>
       <c r="W116" s="34"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:23" ht="15.75" customHeight="1">
       <c r="A117" s="34"/>
       <c r="B117" s="34"/>
       <c r="C117" s="34"/>
@@ -6824,7 +7045,7 @@
       <c r="V117" s="34"/>
       <c r="W117" s="34"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:23" ht="15.75" customHeight="1">
       <c r="A118" s="34"/>
       <c r="B118" s="34"/>
       <c r="C118" s="34"/>
@@ -6849,7 +7070,7 @@
       <c r="V118" s="34"/>
       <c r="W118" s="34"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:23" ht="15.75" customHeight="1">
       <c r="A119" s="34"/>
       <c r="B119" s="34"/>
       <c r="C119" s="34"/>
@@ -6874,7 +7095,7 @@
       <c r="V119" s="34"/>
       <c r="W119" s="34"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:23" ht="15.75" customHeight="1">
       <c r="A120" s="34"/>
       <c r="B120" s="34"/>
       <c r="C120" s="34"/>
@@ -6899,7 +7120,7 @@
       <c r="V120" s="34"/>
       <c r="W120" s="34"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:23" ht="15.75" customHeight="1">
       <c r="A121" s="34"/>
       <c r="B121" s="34"/>
       <c r="C121" s="34"/>
@@ -6924,7 +7145,7 @@
       <c r="V121" s="34"/>
       <c r="W121" s="34"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:23" ht="15.75" customHeight="1">
       <c r="A122" s="34"/>
       <c r="B122" s="34"/>
       <c r="C122" s="34"/>
@@ -6949,7 +7170,7 @@
       <c r="V122" s="34"/>
       <c r="W122" s="34"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:23" ht="15.75" customHeight="1">
       <c r="A123" s="34"/>
       <c r="B123" s="34"/>
       <c r="C123" s="34"/>
@@ -6974,7 +7195,7 @@
       <c r="V123" s="34"/>
       <c r="W123" s="34"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:23" ht="15.75" customHeight="1">
       <c r="A124" s="34"/>
       <c r="B124" s="34"/>
       <c r="C124" s="34"/>
@@ -6999,7 +7220,7 @@
       <c r="V124" s="34"/>
       <c r="W124" s="34"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:23" ht="15.75" customHeight="1">
       <c r="A125" s="34"/>
       <c r="B125" s="34"/>
       <c r="C125" s="34"/>
@@ -7024,7 +7245,7 @@
       <c r="V125" s="34"/>
       <c r="W125" s="34"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:23" ht="15.75" customHeight="1">
       <c r="A126" s="34"/>
       <c r="B126" s="34"/>
       <c r="C126" s="34"/>
@@ -7049,7 +7270,7 @@
       <c r="V126" s="34"/>
       <c r="W126" s="34"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:23" ht="15.75" customHeight="1">
       <c r="A127" s="34"/>
       <c r="B127" s="34"/>
       <c r="C127" s="34"/>
@@ -7074,7 +7295,7 @@
       <c r="V127" s="34"/>
       <c r="W127" s="34"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:23" ht="15.75" customHeight="1">
       <c r="A128" s="34"/>
       <c r="B128" s="34"/>
       <c r="C128" s="34"/>
@@ -7099,7 +7320,7 @@
       <c r="V128" s="34"/>
       <c r="W128" s="34"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:23" ht="15.75" customHeight="1">
       <c r="A129" s="34"/>
       <c r="B129" s="34"/>
       <c r="C129" s="34"/>
@@ -7124,7 +7345,7 @@
       <c r="V129" s="34"/>
       <c r="W129" s="34"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:23" ht="15.75" customHeight="1">
       <c r="A130" s="34"/>
       <c r="B130" s="34"/>
       <c r="C130" s="34"/>
@@ -7149,7 +7370,7 @@
       <c r="V130" s="34"/>
       <c r="W130" s="34"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:23" ht="15.75" customHeight="1">
       <c r="A131" s="34"/>
       <c r="B131" s="34"/>
       <c r="C131" s="34"/>
@@ -7174,7 +7395,7 @@
       <c r="V131" s="34"/>
       <c r="W131" s="34"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:23" ht="15.75" customHeight="1">
       <c r="A132" s="34"/>
       <c r="B132" s="34"/>
       <c r="C132" s="34"/>
@@ -7199,7 +7420,7 @@
       <c r="V132" s="34"/>
       <c r="W132" s="34"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:23" ht="15.75" customHeight="1">
       <c r="A133" s="34"/>
       <c r="B133" s="34"/>
       <c r="C133" s="34"/>
@@ -7224,7 +7445,7 @@
       <c r="V133" s="34"/>
       <c r="W133" s="34"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:23" ht="15.75" customHeight="1">
       <c r="A134" s="34"/>
       <c r="B134" s="34"/>
       <c r="C134" s="34"/>
@@ -7249,7 +7470,7 @@
       <c r="V134" s="34"/>
       <c r="W134" s="34"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:23" ht="15.75" customHeight="1">
       <c r="A135" s="34"/>
       <c r="B135" s="34"/>
       <c r="C135" s="34"/>
@@ -7274,7 +7495,7 @@
       <c r="V135" s="34"/>
       <c r="W135" s="34"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:23" ht="15.75" customHeight="1">
       <c r="A136" s="34"/>
       <c r="B136" s="34"/>
       <c r="C136" s="34"/>
@@ -7299,7 +7520,7 @@
       <c r="V136" s="34"/>
       <c r="W136" s="34"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:23" ht="15.75" customHeight="1">
       <c r="A137" s="34"/>
       <c r="B137" s="34"/>
       <c r="C137" s="34"/>
@@ -7324,7 +7545,7 @@
       <c r="V137" s="34"/>
       <c r="W137" s="34"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:23" ht="15.75" customHeight="1">
       <c r="A138" s="34"/>
       <c r="B138" s="34"/>
       <c r="C138" s="34"/>
@@ -7349,7 +7570,7 @@
       <c r="V138" s="34"/>
       <c r="W138" s="34"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:23" ht="15.75" customHeight="1">
       <c r="A139" s="34"/>
       <c r="B139" s="34"/>
       <c r="C139" s="34"/>
@@ -7374,7 +7595,7 @@
       <c r="V139" s="34"/>
       <c r="W139" s="34"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:23" ht="15.75" customHeight="1">
       <c r="A140" s="34"/>
       <c r="B140" s="34"/>
       <c r="C140" s="34"/>
@@ -7399,7 +7620,7 @@
       <c r="V140" s="34"/>
       <c r="W140" s="34"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:23" ht="15.75" customHeight="1">
       <c r="A141" s="34"/>
       <c r="B141" s="34"/>
       <c r="C141" s="34"/>
@@ -7424,7 +7645,7 @@
       <c r="V141" s="34"/>
       <c r="W141" s="34"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:23" ht="15.75" customHeight="1">
       <c r="A142" s="34"/>
       <c r="B142" s="34"/>
       <c r="C142" s="34"/>
@@ -7449,7 +7670,7 @@
       <c r="V142" s="34"/>
       <c r="W142" s="34"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:23" ht="15.75" customHeight="1">
       <c r="A143" s="34"/>
       <c r="B143" s="34"/>
       <c r="C143" s="34"/>
@@ -7474,7 +7695,7 @@
       <c r="V143" s="34"/>
       <c r="W143" s="34"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:23" ht="15.75" customHeight="1">
       <c r="A144" s="34"/>
       <c r="B144" s="34"/>
       <c r="C144" s="34"/>
@@ -7499,7 +7720,7 @@
       <c r="V144" s="34"/>
       <c r="W144" s="34"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:23" ht="15.75" customHeight="1">
       <c r="A145" s="34"/>
       <c r="B145" s="34"/>
       <c r="C145" s="34"/>
@@ -7524,7 +7745,7 @@
       <c r="V145" s="34"/>
       <c r="W145" s="34"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:23" ht="15.75" customHeight="1">
       <c r="A146" s="34"/>
       <c r="B146" s="34"/>
       <c r="C146" s="34"/>
@@ -7549,7 +7770,7 @@
       <c r="V146" s="34"/>
       <c r="W146" s="34"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:23" ht="15.75" customHeight="1">
       <c r="A147" s="34"/>
       <c r="B147" s="34"/>
       <c r="C147" s="34"/>
@@ -7574,7 +7795,7 @@
       <c r="V147" s="34"/>
       <c r="W147" s="34"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:23" ht="15.75" customHeight="1">
       <c r="A148" s="34"/>
       <c r="B148" s="34"/>
       <c r="C148" s="34"/>
@@ -7599,7 +7820,7 @@
       <c r="V148" s="34"/>
       <c r="W148" s="34"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:23" ht="15.75" customHeight="1">
       <c r="A149" s="34"/>
       <c r="B149" s="34"/>
       <c r="C149" s="34"/>
@@ -7624,7 +7845,7 @@
       <c r="V149" s="34"/>
       <c r="W149" s="34"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:23" ht="15.75" customHeight="1">
       <c r="A150" s="34"/>
       <c r="B150" s="34"/>
       <c r="C150" s="34"/>
@@ -7649,7 +7870,7 @@
       <c r="V150" s="34"/>
       <c r="W150" s="34"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:23" ht="15.75" customHeight="1">
       <c r="A151" s="34"/>
       <c r="B151" s="34"/>
       <c r="C151" s="34"/>
@@ -7674,7 +7895,7 @@
       <c r="V151" s="34"/>
       <c r="W151" s="34"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:23" ht="15.75" customHeight="1">
       <c r="A152" s="34"/>
       <c r="B152" s="34"/>
       <c r="C152" s="34"/>
@@ -7699,7 +7920,7 @@
       <c r="V152" s="34"/>
       <c r="W152" s="34"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:23" ht="15.75" customHeight="1">
       <c r="A153" s="34"/>
       <c r="B153" s="34"/>
       <c r="C153" s="34"/>
@@ -7724,7 +7945,7 @@
       <c r="V153" s="34"/>
       <c r="W153" s="34"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:23" ht="15.75" customHeight="1">
       <c r="A154" s="34"/>
       <c r="B154" s="34"/>
       <c r="C154" s="34"/>
@@ -7749,7 +7970,7 @@
       <c r="V154" s="34"/>
       <c r="W154" s="34"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:23" ht="15.75" customHeight="1">
       <c r="A155" s="34"/>
       <c r="B155" s="34"/>
       <c r="C155" s="34"/>
@@ -7774,7 +7995,7 @@
       <c r="V155" s="34"/>
       <c r="W155" s="34"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:23" ht="15.75" customHeight="1">
       <c r="A156" s="34"/>
       <c r="B156" s="34"/>
       <c r="C156" s="34"/>
@@ -7799,7 +8020,7 @@
       <c r="V156" s="34"/>
       <c r="W156" s="34"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:23" ht="15.75" customHeight="1">
       <c r="A157" s="34"/>
       <c r="B157" s="34"/>
       <c r="C157" s="34"/>
@@ -7824,7 +8045,7 @@
       <c r="V157" s="34"/>
       <c r="W157" s="34"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:23" ht="15.75" customHeight="1">
       <c r="A158" s="34"/>
       <c r="B158" s="34"/>
       <c r="C158" s="34"/>
@@ -7849,7 +8070,7 @@
       <c r="V158" s="34"/>
       <c r="W158" s="34"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:23" ht="15.75" customHeight="1">
       <c r="A159" s="34"/>
       <c r="B159" s="34"/>
       <c r="C159" s="34"/>
@@ -7874,7 +8095,7 @@
       <c r="V159" s="34"/>
       <c r="W159" s="34"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:23" ht="15.75" customHeight="1">
       <c r="A160" s="34"/>
       <c r="B160" s="34"/>
       <c r="C160" s="34"/>
@@ -7899,7 +8120,7 @@
       <c r="V160" s="34"/>
       <c r="W160" s="34"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:23" ht="15.75" customHeight="1">
       <c r="A161" s="34"/>
       <c r="B161" s="34"/>
       <c r="C161" s="34"/>
@@ -7924,7 +8145,7 @@
       <c r="V161" s="34"/>
       <c r="W161" s="34"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:23" ht="15.75" customHeight="1">
       <c r="A162" s="34"/>
       <c r="B162" s="34"/>
       <c r="C162" s="34"/>
@@ -7949,7 +8170,7 @@
       <c r="V162" s="34"/>
       <c r="W162" s="34"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:23" ht="15.75" customHeight="1">
       <c r="A163" s="34"/>
       <c r="B163" s="34"/>
       <c r="C163" s="34"/>
@@ -7974,7 +8195,7 @@
       <c r="V163" s="34"/>
       <c r="W163" s="34"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:23" ht="15.75" customHeight="1">
       <c r="A164" s="34"/>
       <c r="B164" s="34"/>
       <c r="C164" s="34"/>
@@ -7999,7 +8220,7 @@
       <c r="V164" s="34"/>
       <c r="W164" s="34"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:23" ht="15.75" customHeight="1">
       <c r="A165" s="34"/>
       <c r="B165" s="34"/>
       <c r="C165" s="34"/>
@@ -8024,7 +8245,7 @@
       <c r="V165" s="34"/>
       <c r="W165" s="34"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:23" ht="15.75" customHeight="1">
       <c r="A166" s="34"/>
       <c r="B166" s="34"/>
       <c r="C166" s="34"/>
@@ -8049,7 +8270,7 @@
       <c r="V166" s="34"/>
       <c r="W166" s="34"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:23" ht="15.75" customHeight="1">
       <c r="A167" s="34"/>
       <c r="B167" s="34"/>
       <c r="C167" s="34"/>
@@ -8074,7 +8295,7 @@
       <c r="V167" s="34"/>
       <c r="W167" s="34"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:23" ht="15.75" customHeight="1">
       <c r="A168" s="34"/>
       <c r="B168" s="34"/>
       <c r="C168" s="34"/>
@@ -8099,7 +8320,7 @@
       <c r="V168" s="34"/>
       <c r="W168" s="34"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:23" ht="15.75" customHeight="1">
       <c r="A169" s="34"/>
       <c r="B169" s="34"/>
       <c r="C169" s="34"/>
@@ -8124,7 +8345,7 @@
       <c r="V169" s="34"/>
       <c r="W169" s="34"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:23" ht="15.75" customHeight="1">
       <c r="A170" s="34"/>
       <c r="B170" s="34"/>
       <c r="C170" s="34"/>
@@ -8149,7 +8370,7 @@
       <c r="V170" s="34"/>
       <c r="W170" s="34"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:23" ht="15.75" customHeight="1">
       <c r="A171" s="34"/>
       <c r="B171" s="34"/>
       <c r="C171" s="34"/>
@@ -8174,7 +8395,7 @@
       <c r="V171" s="34"/>
       <c r="W171" s="34"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:23" ht="15.75" customHeight="1">
       <c r="A172" s="34"/>
       <c r="B172" s="34"/>
       <c r="C172" s="34"/>
@@ -8199,7 +8420,7 @@
       <c r="V172" s="34"/>
       <c r="W172" s="34"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:23" ht="15.75" customHeight="1">
       <c r="A173" s="34"/>
       <c r="B173" s="34"/>
       <c r="C173" s="34"/>
@@ -8224,7 +8445,7 @@
       <c r="V173" s="34"/>
       <c r="W173" s="34"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:23" ht="15.75" customHeight="1">
       <c r="A174" s="34"/>
       <c r="B174" s="34"/>
       <c r="C174" s="34"/>
@@ -8249,7 +8470,7 @@
       <c r="V174" s="34"/>
       <c r="W174" s="34"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:23" ht="15.75" customHeight="1">
       <c r="A175" s="34"/>
       <c r="B175" s="34"/>
       <c r="C175" s="34"/>
@@ -8274,7 +8495,7 @@
       <c r="V175" s="34"/>
       <c r="W175" s="34"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:23" ht="15.75" customHeight="1">
       <c r="A176" s="34"/>
       <c r="B176" s="34"/>
       <c r="C176" s="34"/>
@@ -8299,7 +8520,7 @@
       <c r="V176" s="34"/>
       <c r="W176" s="34"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:23" ht="15.75" customHeight="1">
       <c r="A177" s="34"/>
       <c r="B177" s="34"/>
       <c r="C177" s="34"/>
@@ -8324,7 +8545,7 @@
       <c r="V177" s="34"/>
       <c r="W177" s="34"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:23" ht="15.75" customHeight="1">
       <c r="A178" s="34"/>
       <c r="B178" s="34"/>
       <c r="C178" s="34"/>
@@ -8349,7 +8570,7 @@
       <c r="V178" s="34"/>
       <c r="W178" s="34"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:23" ht="15.75" customHeight="1">
       <c r="A179" s="34"/>
       <c r="B179" s="34"/>
       <c r="C179" s="34"/>
@@ -8374,7 +8595,7 @@
       <c r="V179" s="34"/>
       <c r="W179" s="34"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:23" ht="15.75" customHeight="1">
       <c r="A180" s="34"/>
       <c r="B180" s="34"/>
       <c r="C180" s="34"/>
@@ -8399,7 +8620,7 @@
       <c r="V180" s="34"/>
       <c r="W180" s="34"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:23" ht="15.75" customHeight="1">
       <c r="A181" s="34"/>
       <c r="B181" s="34"/>
       <c r="C181" s="34"/>
@@ -8424,7 +8645,7 @@
       <c r="V181" s="34"/>
       <c r="W181" s="34"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:23" ht="15.75" customHeight="1">
       <c r="A182" s="34"/>
       <c r="B182" s="34"/>
       <c r="C182" s="34"/>
@@ -8449,7 +8670,7 @@
       <c r="V182" s="34"/>
       <c r="W182" s="34"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:23" ht="15.75" customHeight="1">
       <c r="A183" s="34"/>
       <c r="B183" s="34"/>
       <c r="C183" s="34"/>
@@ -8474,7 +8695,7 @@
       <c r="V183" s="34"/>
       <c r="W183" s="34"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:23" ht="15.75" customHeight="1">
       <c r="A184" s="34"/>
       <c r="B184" s="34"/>
       <c r="C184" s="34"/>
@@ -8499,7 +8720,7 @@
       <c r="V184" s="34"/>
       <c r="W184" s="34"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:23" ht="15.75" customHeight="1">
       <c r="A185" s="34"/>
       <c r="B185" s="34"/>
       <c r="C185" s="34"/>
@@ -8524,7 +8745,7 @@
       <c r="V185" s="34"/>
       <c r="W185" s="34"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:23" ht="15.75" customHeight="1">
       <c r="A186" s="34"/>
       <c r="B186" s="34"/>
       <c r="C186" s="34"/>
@@ -8549,7 +8770,7 @@
       <c r="V186" s="34"/>
       <c r="W186" s="34"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:23" ht="15.75" customHeight="1">
       <c r="A187" s="34"/>
       <c r="B187" s="34"/>
       <c r="C187" s="34"/>
@@ -8574,7 +8795,7 @@
       <c r="V187" s="34"/>
       <c r="W187" s="34"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:23" ht="15.75" customHeight="1">
       <c r="A188" s="34"/>
       <c r="B188" s="34"/>
       <c r="C188" s="34"/>
@@ -8599,7 +8820,7 @@
       <c r="V188" s="34"/>
       <c r="W188" s="34"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:23" ht="15.75" customHeight="1">
       <c r="A189" s="34"/>
       <c r="B189" s="34"/>
       <c r="C189" s="34"/>
@@ -8624,7 +8845,7 @@
       <c r="V189" s="34"/>
       <c r="W189" s="34"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:23" ht="15.75" customHeight="1">
       <c r="A190" s="34"/>
       <c r="B190" s="34"/>
       <c r="C190" s="34"/>
@@ -8649,7 +8870,7 @@
       <c r="V190" s="34"/>
       <c r="W190" s="34"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:23" ht="15.75" customHeight="1">
       <c r="A191" s="34"/>
       <c r="B191" s="34"/>
       <c r="C191" s="34"/>
@@ -8674,7 +8895,7 @@
       <c r="V191" s="34"/>
       <c r="W191" s="34"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:23" ht="15.75" customHeight="1">
       <c r="A192" s="34"/>
       <c r="B192" s="34"/>
       <c r="C192" s="34"/>
@@ -8699,7 +8920,7 @@
       <c r="V192" s="34"/>
       <c r="W192" s="34"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:23" ht="15.75" customHeight="1">
       <c r="A193" s="34"/>
       <c r="B193" s="34"/>
       <c r="C193" s="34"/>
@@ -8724,7 +8945,7 @@
       <c r="V193" s="34"/>
       <c r="W193" s="34"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:23" ht="15.75" customHeight="1">
       <c r="A194" s="34"/>
       <c r="B194" s="34"/>
       <c r="C194" s="34"/>
@@ -8749,7 +8970,7 @@
       <c r="V194" s="34"/>
       <c r="W194" s="34"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:23" ht="15.75" customHeight="1">
       <c r="A195" s="34"/>
       <c r="B195" s="34"/>
       <c r="C195" s="34"/>
@@ -8774,7 +8995,7 @@
       <c r="V195" s="34"/>
       <c r="W195" s="34"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:23" ht="15.75" customHeight="1">
       <c r="A196" s="34"/>
       <c r="B196" s="34"/>
       <c r="C196" s="34"/>
@@ -8799,7 +9020,7 @@
       <c r="V196" s="34"/>
       <c r="W196" s="34"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:23" ht="15.75" customHeight="1">
       <c r="A197" s="34"/>
       <c r="B197" s="34"/>
       <c r="C197" s="34"/>
@@ -8824,7 +9045,7 @@
       <c r="V197" s="34"/>
       <c r="W197" s="34"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:23" ht="15.75" customHeight="1">
       <c r="A198" s="34"/>
       <c r="B198" s="34"/>
       <c r="C198" s="34"/>
@@ -8849,7 +9070,7 @@
       <c r="V198" s="34"/>
       <c r="W198" s="34"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:23" ht="15.75" customHeight="1">
       <c r="A199" s="34"/>
       <c r="B199" s="34"/>
       <c r="C199" s="34"/>
@@ -8874,7 +9095,7 @@
       <c r="V199" s="34"/>
       <c r="W199" s="34"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:23" ht="15.75" customHeight="1">
       <c r="A200" s="34"/>
       <c r="B200" s="34"/>
       <c r="C200" s="34"/>
@@ -8899,7 +9120,7 @@
       <c r="V200" s="34"/>
       <c r="W200" s="34"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:23" ht="15.75" customHeight="1">
       <c r="A201" s="34"/>
       <c r="B201" s="34"/>
       <c r="C201" s="34"/>
@@ -8924,7 +9145,7 @@
       <c r="V201" s="34"/>
       <c r="W201" s="34"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:23" ht="15.75" customHeight="1">
       <c r="A202" s="34"/>
       <c r="B202" s="34"/>
       <c r="C202" s="34"/>
@@ -8949,7 +9170,7 @@
       <c r="V202" s="34"/>
       <c r="W202" s="34"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:23" ht="15.75" customHeight="1">
       <c r="A203" s="34"/>
       <c r="B203" s="34"/>
       <c r="C203" s="34"/>
@@ -8974,7 +9195,7 @@
       <c r="V203" s="34"/>
       <c r="W203" s="34"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:23" ht="15.75" customHeight="1">
       <c r="A204" s="34"/>
       <c r="B204" s="34"/>
       <c r="C204" s="34"/>
@@ -8999,7 +9220,7 @@
       <c r="V204" s="34"/>
       <c r="W204" s="34"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:23" ht="15.75" customHeight="1">
       <c r="A205" s="34"/>
       <c r="B205" s="34"/>
       <c r="C205" s="34"/>
@@ -9024,7 +9245,7 @@
       <c r="V205" s="34"/>
       <c r="W205" s="34"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:23" ht="15.75" customHeight="1">
       <c r="A206" s="34"/>
       <c r="B206" s="34"/>
       <c r="C206" s="34"/>
@@ -9049,7 +9270,7 @@
       <c r="V206" s="34"/>
       <c r="W206" s="34"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:23" ht="15.75" customHeight="1">
       <c r="A207" s="34"/>
       <c r="B207" s="34"/>
       <c r="C207" s="34"/>
@@ -9074,7 +9295,7 @@
       <c r="V207" s="34"/>
       <c r="W207" s="34"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:23" ht="15.75" customHeight="1">
       <c r="A208" s="34"/>
       <c r="B208" s="34"/>
       <c r="C208" s="34"/>
@@ -9099,7 +9320,7 @@
       <c r="V208" s="34"/>
       <c r="W208" s="34"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:23" ht="15.75" customHeight="1">
       <c r="A209" s="34"/>
       <c r="B209" s="34"/>
       <c r="C209" s="34"/>
@@ -9124,7 +9345,7 @@
       <c r="V209" s="34"/>
       <c r="W209" s="34"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:23" ht="15.75" customHeight="1">
       <c r="A210" s="34"/>
       <c r="B210" s="34"/>
       <c r="C210" s="34"/>
@@ -9149,7 +9370,7 @@
       <c r="V210" s="34"/>
       <c r="W210" s="34"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:23" ht="15.75" customHeight="1">
       <c r="A211" s="34"/>
       <c r="B211" s="34"/>
       <c r="C211" s="34"/>
@@ -9174,7 +9395,7 @@
       <c r="V211" s="34"/>
       <c r="W211" s="34"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:23" ht="15.75" customHeight="1">
       <c r="A212" s="34"/>
       <c r="B212" s="34"/>
       <c r="C212" s="34"/>
@@ -9199,7 +9420,7 @@
       <c r="V212" s="34"/>
       <c r="W212" s="34"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:23" ht="15.75" customHeight="1">
       <c r="A213" s="34"/>
       <c r="B213" s="34"/>
       <c r="C213" s="34"/>
@@ -9224,7 +9445,7 @@
       <c r="V213" s="34"/>
       <c r="W213" s="34"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:23" ht="15.75" customHeight="1">
       <c r="A214" s="34"/>
       <c r="B214" s="34"/>
       <c r="C214" s="34"/>
@@ -9249,7 +9470,7 @@
       <c r="V214" s="34"/>
       <c r="W214" s="34"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:23" ht="15.75" customHeight="1">
       <c r="A215" s="34"/>
       <c r="B215" s="34"/>
       <c r="C215" s="34"/>
@@ -9274,7 +9495,7 @@
       <c r="V215" s="34"/>
       <c r="W215" s="34"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:23" ht="15.75" customHeight="1">
       <c r="A216" s="34"/>
       <c r="B216" s="34"/>
       <c r="C216" s="34"/>
@@ -9299,7 +9520,7 @@
       <c r="V216" s="34"/>
       <c r="W216" s="34"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:23" ht="15.75" customHeight="1">
       <c r="A217" s="34"/>
       <c r="B217" s="34"/>
       <c r="C217" s="34"/>
@@ -9324,7 +9545,7 @@
       <c r="V217" s="34"/>
       <c r="W217" s="34"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:23" ht="15.75" customHeight="1">
       <c r="A218" s="34"/>
       <c r="B218" s="34"/>
       <c r="C218" s="34"/>
@@ -9349,7 +9570,7 @@
       <c r="V218" s="34"/>
       <c r="W218" s="34"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:23" ht="15.75" customHeight="1">
       <c r="A219" s="34"/>
       <c r="B219" s="34"/>
       <c r="C219" s="34"/>
@@ -9374,7 +9595,7 @@
       <c r="V219" s="34"/>
       <c r="W219" s="34"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:23" ht="15.75" customHeight="1">
       <c r="A220" s="34"/>
       <c r="B220" s="34"/>
       <c r="C220" s="34"/>
@@ -9399,7 +9620,7 @@
       <c r="V220" s="34"/>
       <c r="W220" s="34"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:23" ht="15.75" customHeight="1">
       <c r="A221" s="34"/>
       <c r="B221" s="34"/>
       <c r="C221" s="34"/>
@@ -9424,7 +9645,7 @@
       <c r="V221" s="34"/>
       <c r="W221" s="34"/>
     </row>
-    <row r="222" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:23" ht="15.75" customHeight="1">
       <c r="A222" s="34"/>
       <c r="B222" s="34"/>
       <c r="C222" s="34"/>
@@ -9449,786 +9670,786 @@
       <c r="V222" s="34"/>
       <c r="W222" s="34"/>
     </row>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" spans="1:23" ht="15.75" customHeight="1"/>
+    <row r="224" spans="1:23" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>